--- a/DataProvider.xlsx
+++ b/DataProvider.xlsx
@@ -4,26 +4,32 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="832" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="832" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
-    <sheet name="AllMembers" sheetId="29" r:id="rId1"/>
-    <sheet name="SixMembers" sheetId="25" r:id="rId2"/>
-    <sheet name="TwelveMembers" sheetId="27" r:id="rId3"/>
-    <sheet name="TwentyMembers" sheetId="28" r:id="rId4"/>
-    <sheet name="Central_Members" sheetId="17" r:id="rId5"/>
-    <sheet name="Primary_Committee" sheetId="19" r:id="rId6"/>
-    <sheet name="Central_Committee" sheetId="20" r:id="rId7"/>
-    <sheet name="P_Fin_Info" sheetId="21" r:id="rId8"/>
-    <sheet name="Update_AP" sheetId="24" r:id="rId9"/>
-    <sheet name="Update_Member" sheetId="23" r:id="rId10"/>
+    <sheet name="Name_Clearance" sheetId="30" r:id="rId1"/>
+    <sheet name="Initial_Info" sheetId="31" r:id="rId2"/>
+    <sheet name="AllMembers" sheetId="29" r:id="rId3"/>
+    <sheet name="SixMembers" sheetId="25" r:id="rId4"/>
+    <sheet name="TwelveMembers" sheetId="27" r:id="rId5"/>
+    <sheet name="TwentyMembers" sheetId="28" r:id="rId6"/>
+    <sheet name="Central_Members" sheetId="17" r:id="rId7"/>
+    <sheet name="National_Members" sheetId="35" r:id="rId8"/>
+    <sheet name="Primary_Committee" sheetId="19" r:id="rId9"/>
+    <sheet name="Central_Committee" sheetId="20" r:id="rId10"/>
+    <sheet name="National_Committee" sheetId="36" r:id="rId11"/>
+    <sheet name="P_Fin_Info" sheetId="21" r:id="rId12"/>
+    <sheet name="Update_AP" sheetId="24" r:id="rId13"/>
+    <sheet name="Update_Member" sheetId="23" r:id="rId14"/>
+    <sheet name="P_Manual_Samity" sheetId="33" r:id="rId15"/>
+    <sheet name="C_Manual_Samity" sheetId="34" r:id="rId16"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="373">
   <si>
     <t>Nid/Brn</t>
   </si>
@@ -260,9 +266,6 @@
   </si>
   <si>
     <t>মোহাম্মদ ইছহাক</t>
-  </si>
-  <si>
-    <t>কাজী নজমুল হক</t>
   </si>
   <si>
     <t>মেহের কবির</t>
@@ -830,24 +833,6 @@
     <t>চিরন্তন - Chironton</t>
   </si>
   <si>
-    <t xml:space="preserve">হাসান উদ্দিন - (CHANGE foundation) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">হাসান উদ্দিন - (ActionAid) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">হাসান উদ্দিন - (Nielsen Bangladesh Ltd.) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">হাসান উদ্দিন - (Kingshuk Bahumukhi Shamabay Samity) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">হাসান উদ্দিন - (চিরন্তন - Chironton) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">হাসান উদ্দিন - (Peoples Credit Co-Op-Society Ltd) </t>
-  </si>
-  <si>
     <t>5000</t>
   </si>
   <si>
@@ -957,13 +942,253 @@
   </si>
   <si>
     <t>Loan 6</t>
+  </si>
+  <si>
+    <t>05012022</t>
+  </si>
+  <si>
+    <t>08022022</t>
+  </si>
+  <si>
+    <t>10032022</t>
+  </si>
+  <si>
+    <t>03042022</t>
+  </si>
+  <si>
+    <t>23052022</t>
+  </si>
+  <si>
+    <t>20062022</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>Upazilla</t>
+  </si>
+  <si>
+    <t>Samity Type</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>বিত্তহীন সমবায় সমিতি</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Election Area Union</t>
+  </si>
+  <si>
+    <t>Work Area Union</t>
+  </si>
+  <si>
+    <t>Work Area Address</t>
+  </si>
+  <si>
+    <t>Fee</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t>Share Price</t>
+  </si>
+  <si>
+    <t>Sell Share</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Enterprice</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>03012022</t>
+  </si>
+  <si>
+    <t>0273835618</t>
+  </si>
+  <si>
+    <t>01738356180</t>
+  </si>
+  <si>
+    <t>প্রধানমন্ত্রীর কার্যালয়</t>
+  </si>
+  <si>
+    <t xml:space="preserve">আশ্রয়ন </t>
+  </si>
+  <si>
+    <t>https://www.samity.com</t>
+  </si>
+  <si>
+    <t>shomiti@gmail.com</t>
+  </si>
+  <si>
+    <t>বাড়ি নং-৪২, রাস্তা-০৯</t>
+  </si>
+  <si>
+    <t>খুলনা সিটি কর্পোরেশন</t>
+  </si>
+  <si>
+    <t>সুতারখালী</t>
+  </si>
+  <si>
+    <t>অষ্টধার</t>
+  </si>
+  <si>
+    <t>ভাবখালী</t>
+  </si>
+  <si>
+    <t>ময়মনসিংহ পৌরসভা</t>
+  </si>
+  <si>
+    <t xml:space="preserve">মোস্তাফিজুর রহমান - (CHANGE foundation) </t>
+  </si>
+  <si>
+    <t>S_Level</t>
+  </si>
+  <si>
+    <t>S_Name</t>
+  </si>
+  <si>
+    <t>C_Date</t>
+  </si>
+  <si>
+    <t>R_Date</t>
+  </si>
+  <si>
+    <t>Reg_No</t>
+  </si>
+  <si>
+    <t>S_Type</t>
+  </si>
+  <si>
+    <t>Enterprise</t>
+  </si>
+  <si>
+    <t>Effectiveness</t>
+  </si>
+  <si>
+    <t>Ap Name</t>
+  </si>
+  <si>
+    <t>NID</t>
+  </si>
+  <si>
+    <t>OwnOrOthers</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>03082022</t>
+  </si>
+  <si>
+    <t>10082022</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>১০.২০.৫৯৭৮</t>
+  </si>
+  <si>
+    <t>own</t>
+  </si>
+  <si>
+    <t>Kingshuk Bahumukhi Shamabay Samity(M)</t>
+  </si>
+  <si>
+    <t>উপজেলা সমবায় অফিসার - প্রনয় রঞ্জন মন্ডল</t>
+  </si>
+  <si>
+    <t xml:space="preserve">উপজেলা সমবায় অফিসার - মোঃ কামরুজ্জামান </t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>ফুলতলা বিত্তহীন সমবায় সমিতি(M)</t>
+  </si>
+  <si>
+    <t>১৫.২০.৪৫৮৭</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>পাইকগাছা বিত্তহীন সমবায় সমিতি</t>
+  </si>
+  <si>
+    <t>দিঘলিয়া বিত্তহীন সমবায় সমিতি</t>
+  </si>
+  <si>
+    <t>বটিয়াঘাটা বিত্তহীন সমবায় সমিতি</t>
+  </si>
+  <si>
+    <t>রূপসা বিত্তহীন সমবায় সমিতি</t>
+  </si>
+  <si>
+    <t>ফুলতলা বিত্তহীন সমবায় সমিতি</t>
+  </si>
+  <si>
+    <t xml:space="preserve">মোস্তাফিজুর রহমান - (রূপসা বিত্তহীন সমবায় সমিতি) </t>
+  </si>
+  <si>
+    <t>ডুমুরিয়া বিত্তহীন সমবায় সমিতি</t>
+  </si>
+  <si>
+    <t xml:space="preserve">নূরুজ্জামান সওদাগর - (ActionAid) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">বদরুন্নেসা আহমেদ - (Peoples Credit Co-Op-Society Ltd) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">মুনমুন বসু - (Kingshuk Bahumukhi Shamabay Samity) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">আবুল খায়ের সিদ্দিকী - (চিরন্তন - Chironton) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">মুনমুন বসু - (ডুমুরিয়া বিত্তহীন সমবায় সমিতি)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">নূরুজ্জামান সওদাগর - (ফুলতলা বিত্তহীন সমবায় সমিতি) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">আবুল খায়ের সিদ্দিকী - (দিঘলিয়া বিত্তহীন সমবায় সমিতি) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">আবুল খায়ের সিদ্দিকী - (বটিয়াঘাটা বিত্তহীন সমবায় সমিতি) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">বদরুন্নেসা আহমেদ - (পাইকগাছা বিত্তহীন সমবায় সমিতি) </t>
+  </si>
+  <si>
+    <t>কাজী নাজমুল হক</t>
+  </si>
+  <si>
+    <t xml:space="preserve">কাজী নাজমুল হক - (Nielsen Bangladesh Ltd.) </t>
+  </si>
+  <si>
+    <t>08091988</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1017,6 +1242,27 @@
     </font>
     <font>
       <sz val="9.8000000000000007"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -1134,10 +1380,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1325,8 +1572,28 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1629,10 +1896,1156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A1" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>303</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+      <formula1>"খুলনা,ময়মনসিংহ"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>"খুলনা,যশোর ,ময়মনসিংহ ,জামালপুর "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>"দাকোপ,মণিরামপুর,ময়মনসিংহ সদর"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>"মৎস্যজীবী বা মৎস্যচাষী সমবায় সমিতি,মৃৎশিল্পী সমবায় সমিতি,বিত্তহীন সমবায় সমিতি,মহিলা সমবায় সমিতি,কৃষি বা কৃষক সমবায় সমিতি"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="44.140625" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="5" width="44" customWidth="1"/>
+    <col min="6" max="6" width="44.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A2:E2">
+      <formula1>"নূরুজ্জামান সওদাগর - (ActionAid) ,মুনমুন বসু - (Kingshuk Bahumukhi Shamabay Samity) ,মোস্তাফিজুর রহমান - (CHANGE foundation) ,বদরুন্নেসা আহমেদ - (Peoples Credit Co-Op-Society Ltd) ,আবুল খায়ের সিদ্দিকী - (চিরন্তন - Chironton) ,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2">
+      <formula1>"নূরুজ্জামান সওদাগর - (ActionAid) ,মুনমুন বসু - (Kingshuk Bahumukhi Shamabay Samity) ,মোস্তাফিজুর রহমান - (CHANGE foundation) ,বদরুন্নেসা আহমেদ - (Peoples Credit Co-Op-Society Ltd) ,কাজী নাজমুল হক - (Nielsen Bangladesh Ltd.) "</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="44.28515625" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" customWidth="1"/>
+    <col min="5" max="5" width="46.5703125" customWidth="1"/>
+    <col min="6" max="6" width="44.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>279</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>280</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="H1" s="54" t="s">
+        <v>282</v>
+      </c>
+      <c r="I1" s="54" t="s">
+        <v>283</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="K1" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="L1" s="54" t="s">
+        <v>286</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="N1" s="54" t="s">
+        <v>288</v>
+      </c>
+      <c r="O1" s="54" t="s">
+        <v>289</v>
+      </c>
+      <c r="P1" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q1" s="54" t="s">
+        <v>291</v>
+      </c>
+      <c r="R1" s="54" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="H2" s="43" t="s">
+        <v>260</v>
+      </c>
+      <c r="I2" s="55" t="s">
+        <v>258</v>
+      </c>
+      <c r="J2" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="L2" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="M2" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="O2" s="54" t="s">
+        <v>262</v>
+      </c>
+      <c r="P2" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q2" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="R2" s="54" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="44">
+        <v>1</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="J2" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="N2" s="60" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2">
+      <formula1>"খুলনা,যশোর ,ময়মনসিংহ"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2">
+      <formula1>"দাকোপ,মণিরামপুর,ময়মনসিংহ সদর"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
+      <formula1>"খুলনা সিটি কর্পোরেশন,মনিরামপুর পৌরসভা,ময়মনসিংহ পৌরসভা"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" customWidth="1"/>
+    <col min="17" max="17" width="19" customWidth="1"/>
+    <col min="18" max="18" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="54">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>189</v>
+      </c>
+      <c r="H2" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="54">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="R2" s="27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2">
+      <formula1>"দাকোপ,মণিরামপুর,ময়মনসিংহ সদর"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2">
+      <formula1>"খুলনা সিটি কর্পোরেশন,মনিরামপুর পৌরসভা,ময়মনসিংহ পৌরসভা"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2">
+      <formula1>"খুলনা,যশোর ,ময়মনসিংহ"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="17" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" customWidth="1"/>
+    <col min="17" max="17" width="11" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" customWidth="1"/>
+    <col min="19" max="19" width="39" customWidth="1"/>
+    <col min="20" max="20" width="22.7109375" customWidth="1"/>
+    <col min="21" max="21" width="24.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>333</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>334</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="G1" s="59" t="s">
+        <v>336</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>337</v>
+      </c>
+      <c r="J1" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="69" t="s">
+        <v>305</v>
+      </c>
+      <c r="M1" s="69" t="s">
+        <v>306</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>338</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="66" t="s">
+        <v>340</v>
+      </c>
+      <c r="S1" s="67" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="54" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="I2" s="54" t="s">
+        <v>344</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="O2" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="P2" s="46">
+        <v>4655155903</v>
+      </c>
+      <c r="Q2" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="R2" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="S2" s="68" t="s">
+        <v>348</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+      <formula1>"১০.২০.৫৯৭৮,১৫.২০.৪৫৮৭,৫০.৯০.৩৯৭৮"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+      <formula1>"মৎস্যজীবী বা মৎস্যচাষী সমবায় সমিতি,মৃৎশিল্পী সমবায় সমিতি,বিত্তহীন সমবায় সমিতি,মহিলা সমবায় সমিতি,কৃষি বা কৃষক সমবায় সমিতি"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+      <formula1>"আশ্রয়ন ,আশ্রয়ন-২ ,আশ্রয়ন-ফেইজ ২ ,বঙ্গবন্ধু মডেল ভিলেজ প্রকল্প ১,ফ্যামিলি ওয়েলফেয়ার,আবর্তক / গাভী ঋণ প্রকল্প"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>"প্রধানমন্ত্রীর কার্যালয়,সমবায় অধিদপ্তর"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
+      <formula1>"E,I,A"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+      <formula1>"দাকোপ,মণিরামপুর,অষ্টধার"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
+      <formula1>"খুলনা সিটি কর্পোরেশন,মনিরামপুর পৌরসভা,ময়মনসিংহ পৌরসভা"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2">
+      <formula1>"own,others"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2">
+      <formula1>"উপজেলা সমবায় অফিসার - প্রনয় রঞ্জন মন্ডল,উপজেলা সমবায় অফিসার - মো. তারিকুল ইসলাম,উপজেলা সমবায় অফিসার - মোঃ কামরুজ্জামান "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>"ActionAid(M),Kingshuk Bahumukhi Shamabay Samity(M),Peoples Credit Co-Op-Society Ltd(M),চিরন্তন - Chironton(M),CHANGE foundation(M),Nielsen Bangladesh Ltd.(M)"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2">
+      <formula1>"সুতারখালী,ঝাঁপা,ভাবখালী"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" customWidth="1"/>
+    <col min="16" max="16" width="20.5703125" customWidth="1"/>
+    <col min="17" max="17" width="11" customWidth="1"/>
+    <col min="18" max="18" width="36.7109375" customWidth="1"/>
+    <col min="19" max="19" width="39" customWidth="1"/>
+    <col min="20" max="20" width="22.7109375" customWidth="1"/>
+    <col min="21" max="21" width="24.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>333</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>334</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="G1" s="59" t="s">
+        <v>336</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>337</v>
+      </c>
+      <c r="J1" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="69" t="s">
+        <v>305</v>
+      </c>
+      <c r="M1" s="69" t="s">
+        <v>306</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q1" s="66" t="s">
+        <v>340</v>
+      </c>
+      <c r="R1" s="67" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="54" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="I2" s="54" t="s">
+        <v>344</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="P2" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q2" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="R2" s="68" t="s">
+        <v>349</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2">
+      <formula1>"সুতারখালী,ঝাঁপা,ভাবখালী"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2">
+      <formula1>"ActionAid,Kingshuk Bahumukhi Shamabay Samity,Peoples Credit Co-Op-Society Ltd,চিরন্তন - Chironton,CHANGE foundation,Nielsen Bangladesh Ltd."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2">
+      <formula1>"উপজেলা সমবায় অফিসার - প্রনয় রঞ্জন মন্ডল,উপজেলা সমবায় অফিসার - মো. তারিকুল ইসলাম,উপজেলা সমবায় অফিসার - মোঃ কামরুজ্জামান "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2">
+      <formula1>"own,others"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
+      <formula1>"খুলনা সিটি কর্পোরেশন,মনিরামপুর পৌরসভা,ময়মনসিংহ পৌরসভা"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+      <formula1>"দাকোপ,মণিরামপুর,অষ্টধার"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
+      <formula1>"E,I,A"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>"প্রধানমন্ত্রীর কার্যালয়,সমবায় অধিদপ্তর"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+      <formula1>"আশ্রয়ন ,আশ্রয়ন-২ ,আশ্রয়ন-ফেইজ ২ ,বঙ্গবন্ধু মডেল ভিলেজ প্রকল্প ১,ফ্যামিলি ওয়েলফেয়ার,আবর্তক / গাভী ঋণ প্রকল্প"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+      <formula1>"মৎস্যজীবী বা মৎস্যচাষী সমবায় সমিতি,মৃৎশিল্পী সমবায় সমিতি,বিত্তহীন সমবায় সমিতি,মহিলা সমবায় সমিতি,কৃষি বা কৃষক সমবায় সমিতি"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+      <formula1>"১০.২০.৫৯৭৮,১৫.২০.৪৫৮৭,৫০.৯০.৩৯৭৮"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+      <formula1>"C,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>"ফুলতলা বিত্তহীন সমবায় সমিতি(M),রূপসা বিত্তহীন সমবায় সমিতি(M),ডুমুরিয়া বিত্তহীন সমবায় সমিতি(M),াইকগাছা বিত্তহীন সমবায় সমিতি(M),দিঘলিয়া বিত্তহীন সমবায় সমিতি(M),বটিয়াঘাটা বিত্তহীন সমবায় সমিতি(M)"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" customWidth="1"/>
+    <col min="8" max="8" width="5" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" customWidth="1"/>
+    <col min="15" max="15" width="24.5703125" customWidth="1"/>
+    <col min="16" max="16" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="17.25" customHeight="1">
+      <c r="A1" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="O1" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="P1" s="30" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>325</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="G2" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1500</v>
+      </c>
+      <c r="I2" s="6">
+        <v>5000</v>
+      </c>
+      <c r="J2" s="6">
+        <v>1500</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="M2" s="65" t="s">
+        <v>322</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
+      <formula1>"প্রধানমন্ত্রীর কার্যালয়,সমবায় অধিদপ্তর"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2">
+      <formula1>"আশ্রয়ন ,আশ্রয়ন-২ ,আশ্রয়ন-ফেইজ ২ ,বঙ্গবন্ধু মডেল ভিলেজ প্রকল্প ১,ফ্যামিলি ওয়েলফেয়ার,আবর্তক / গাভী ঋণ প্রকল্প"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+      <formula1>"দাকোপ,মণিরামপুর,অষ্টধার"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>"সুতারখালী,ঝাঁপা,ভাবখালী"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>"খুলনা সিটি কর্পোরেশন,মনিরামপুর পৌরসভা,ময়মনসিংহ পৌরসভা"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="M2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1651,7 +3064,7 @@
     <col min="14" max="14" width="13" customWidth="1"/>
     <col min="15" max="15" width="11.5703125" customWidth="1"/>
     <col min="16" max="16" width="10.7109375" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" customWidth="1"/>
+    <col min="17" max="17" width="20" customWidth="1"/>
     <col min="18" max="18" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1705,7 +3118,7 @@
         <v>14</v>
       </c>
       <c r="Q1" s="36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R1" s="36" t="s">
         <v>15</v>
@@ -1725,46 +3138,46 @@
         <v>31</v>
       </c>
       <c r="E2" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>103</v>
-      </c>
       <c r="I2" s="12">
         <v>1</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P2" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="R2" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="Q2" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1781,46 +3194,46 @@
         <v>32</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N3" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="O3" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="O3" s="17" t="s">
-        <v>162</v>
-      </c>
       <c r="P3" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q3" s="19" t="s">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1837,46 +3250,46 @@
         <v>33</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P4" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1893,46 +3306,46 @@
         <v>34</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I5" s="2">
         <v>2</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P5" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q5" s="19" t="s">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1949,46 +3362,46 @@
         <v>35</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I6" s="2">
         <v>2</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N6" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P6" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q6" s="19" t="s">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2005,46 +3418,46 @@
         <v>36</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L7" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="M7" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="M7" s="19" t="s">
-        <v>158</v>
-      </c>
       <c r="N7" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P7" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q7" s="19" t="s">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2061,46 +3474,46 @@
         <v>37</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M8" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="N8" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="N8" s="19" t="s">
-        <v>160</v>
-      </c>
       <c r="O8" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P8" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="R8" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="Q8" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2117,46 +3530,46 @@
         <v>38</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I9" s="2">
         <v>2</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q9" s="19" t="s">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2173,46 +3586,46 @@
         <v>39</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I10" s="2">
         <v>2</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2229,46 +3642,46 @@
         <v>40</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O11" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q11" s="19" t="s">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2285,46 +3698,46 @@
         <v>41</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N12" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O12" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P12" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q12" s="19" t="s">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2341,46 +3754,46 @@
         <v>42</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L13" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="M13" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="M13" s="19" t="s">
-        <v>158</v>
-      </c>
       <c r="N13" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="O13" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="O13" s="17" t="s">
-        <v>162</v>
-      </c>
       <c r="P13" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="19" t="s">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2397,46 +3810,46 @@
         <v>43</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L14" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N14" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="O14" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="O14" s="17" t="s">
-        <v>162</v>
-      </c>
       <c r="P14" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q14" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="R14" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="Q14" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="R14" s="6" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2453,46 +3866,46 @@
         <v>44</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N15" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O15" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P15" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q15" s="19" t="s">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2509,46 +3922,46 @@
         <v>45</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M16" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N16" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="O16" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="O16" s="17" t="s">
-        <v>162</v>
-      </c>
       <c r="P16" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q16" s="19" t="s">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2565,46 +3978,46 @@
         <v>46</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I17" s="2">
         <v>2</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L17" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O17" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P17" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q17" s="19" t="s">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2621,46 +4034,46 @@
         <v>47</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I18" s="2">
         <v>2</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M18" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N18" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P18" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q18" s="19" t="s">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2677,46 +4090,46 @@
         <v>48</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>76</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L19" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="M19" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="M19" s="19" t="s">
-        <v>158</v>
-      </c>
       <c r="N19" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O19" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P19" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q19" s="19" t="s">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2733,46 +4146,46 @@
         <v>49</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L20" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M20" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N20" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O20" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P20" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q20" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="R20" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="Q20" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="R20" s="6" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2789,46 +4202,46 @@
         <v>50</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L21" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M21" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N21" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="O21" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="O21" s="17" t="s">
-        <v>162</v>
-      </c>
       <c r="P21" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q21" s="19" t="s">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2845,46 +4258,46 @@
         <v>51</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L22" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M22" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N22" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="O22" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="O22" s="17" t="s">
-        <v>162</v>
-      </c>
       <c r="P22" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q22" s="19" t="s">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2901,46 +4314,46 @@
         <v>52</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I23" s="2">
         <v>2</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L23" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M23" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N23" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O23" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P23" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q23" s="19" t="s">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2957,46 +4370,46 @@
         <v>53</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I24" s="2">
         <v>2</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L24" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M24" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N24" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O24" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P24" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q24" s="19" t="s">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -3012,47 +4425,47 @@
       <c r="D25" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="21" t="s">
-        <v>79</v>
+      <c r="E25" s="28" t="s">
+        <v>370</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L25" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M25" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N25" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O25" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P25" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q25" s="19" t="s">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3072,43 +4485,43 @@
         <v>78</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L26" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M26" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N26" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O26" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P26" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q26" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="R26" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="Q26" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="R26" s="6" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3128,43 +4541,43 @@
         <v>77</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I27" s="2">
         <v>1</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L27" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M27" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N27" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="O27" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="O27" s="17" t="s">
-        <v>162</v>
-      </c>
       <c r="P27" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q27" s="19" t="s">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3184,43 +4597,43 @@
         <v>76</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I28" s="2">
         <v>1</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L28" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M28" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N28" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O28" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P28" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q28" s="19" t="s">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c r="R28" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3240,43 +4653,43 @@
         <v>75</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I29" s="2">
         <v>2</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L29" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M29" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N29" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O29" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P29" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q29" s="19" t="s">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c r="R29" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3296,43 +4709,43 @@
         <v>74</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I30" s="2">
         <v>2</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L30" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M30" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N30" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O30" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P30" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q30" s="19" t="s">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c r="R30" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3352,43 +4765,43 @@
         <v>73</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I31" s="2">
         <v>1</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K31" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L31" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M31" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N31" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="O31" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="O31" s="17" t="s">
-        <v>162</v>
-      </c>
       <c r="P31" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q31" s="19" t="s">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c r="R31" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3408,43 +4821,43 @@
         <v>72</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I32" s="2">
         <v>1</v>
       </c>
       <c r="J32" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L32" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M32" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N32" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O32" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P32" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q32" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="R32" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="Q32" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="R32" s="6" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3464,43 +4877,43 @@
         <v>71</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I33" s="2">
         <v>1</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L33" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M33" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N33" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="O33" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="O33" s="17" t="s">
-        <v>162</v>
-      </c>
       <c r="P33" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q33" s="19" t="s">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c r="R33" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3520,43 +4933,43 @@
         <v>70</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I34" s="2">
         <v>1</v>
       </c>
       <c r="J34" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L34" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M34" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N34" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="O34" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="O34" s="17" t="s">
-        <v>162</v>
-      </c>
       <c r="P34" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q34" s="19" t="s">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c r="R34" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3576,43 +4989,43 @@
         <v>69</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I35" s="2">
         <v>2</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L35" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M35" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N35" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O35" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P35" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q35" s="19" t="s">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c r="R35" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3632,43 +5045,43 @@
         <v>68</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I36" s="2">
         <v>2</v>
       </c>
       <c r="J36" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K36" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L36" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M36" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N36" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O36" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P36" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q36" s="19" t="s">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c r="R36" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3688,220 +5101,67 @@
         <v>67</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I37" s="2">
         <v>1</v>
       </c>
       <c r="J37" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L37" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="M37" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="M37" s="19" t="s">
-        <v>158</v>
-      </c>
       <c r="N37" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O37" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P37" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q37" s="19" t="s">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c r="R37" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O37">
-      <formula1>"খুলনা,ময়মনসিংহ"</formula1>
+      <formula1>"খুলনা,যশোর ,ময়মনসিংহ"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P37">
-      <formula1>"দাকোপ,ময়মনসিংহ সদর"</formula1>
+      <formula1>"দাকোপ,মণিরামপুর,ময়মনসিংহ সদর"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q37">
-      <formula1>"দাকোপ,ভাবখালী"</formula1>
+      <formula1>"খুলনা সিটি কর্পোরেশন,মনিরামপুর পৌরসভা,ময়মনসিংহ পৌরসভা"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" customWidth="1"/>
-    <col min="18" max="18" width="21.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="R1" s="36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="54">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="C2" s="6">
-        <v>8091988</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="F2" s="56" t="s">
-        <v>214</v>
-      </c>
-      <c r="G2" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="H2" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="54">
-        <v>1</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="M2" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="O2" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="P2" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q2" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="R2" s="27" t="s">
-        <v>165</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2">
-      <formula1>"খুলনা,ময়মনসিংহ"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2">
-      <formula1>"দাকোপ,ময়মনসিংহ সদর"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2">
-      <formula1>"দাকোপ,ভাবখালী"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:R7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3920,7 +5180,7 @@
     <col min="14" max="14" width="13" customWidth="1"/>
     <col min="15" max="15" width="11.5703125" customWidth="1"/>
     <col min="16" max="16" width="10.7109375" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" customWidth="1"/>
+    <col min="17" max="17" width="19.7109375" customWidth="1"/>
     <col min="18" max="18" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3974,7 +5234,7 @@
         <v>14</v>
       </c>
       <c r="Q1" s="36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R1" s="36" t="s">
         <v>15</v>
@@ -3994,46 +5254,46 @@
         <v>43</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I2" s="42">
         <v>1</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K2" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L2" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M2" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N2" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="O2" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="O2" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="P2" s="32" t="s">
+      <c r="P2" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="R2" s="27" t="s">
         <v>164</v>
-      </c>
-      <c r="Q2" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="R2" s="27" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -4050,46 +5310,46 @@
         <v>38</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I3" s="42">
         <v>2</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K3" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L3" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M3" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N3" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="O3" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="P3" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q3" s="32" t="s">
-        <v>164</v>
+        <v>170</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -4106,46 +5366,46 @@
         <v>33</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I4" s="42">
         <v>1</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K4" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L4" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M4" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N4" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="O4" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="P4" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q4" s="39" t="s">
-        <v>164</v>
+        <v>170</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="R4" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -4162,46 +5422,46 @@
         <v>47</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I5" s="42">
         <v>2</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K5" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L5" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M5" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N5" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="O5" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="P5" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q5" s="32" t="s">
-        <v>164</v>
+        <v>159</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="R5" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -4218,46 +5478,46 @@
         <v>50</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I6" s="42">
         <v>1</v>
       </c>
       <c r="J6" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K6" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L6" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M6" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N6" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="O6" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="O6" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="P6" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q6" s="32" t="s">
-        <v>164</v>
+      <c r="P6" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="R6" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -4274,65 +5534,65 @@
         <v>54</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>79</v>
+        <v>370</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I7" s="42">
         <v>1</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K7" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L7" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M7" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N7" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="O7" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="P7" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q7" s="32" t="s">
-        <v>164</v>
+        <v>170</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="R7" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O7">
+      <formula1>"খুলনা,যশোর ,ময়মনসিংহ"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q7">
-      <formula1>"দাকোপ,ভাবখালী"</formula1>
+      <formula1>"খুলনা সিটি কর্পোরেশন,মনিরামপুর পৌরসভা,ময়মনসিংহ পৌরসভা"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P7">
-      <formula1>"দাকোপ,ময়মনসিংহ সদর"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O7">
-      <formula1>"খুলনা,ময়মনসিংহ"</formula1>
+      <formula1>"দাকোপ,মণিরামপুর,ময়মনসিংহ সদর"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R13"/>
   <sheetViews>
@@ -4356,7 +5616,7 @@
     <col min="14" max="14" width="13" customWidth="1"/>
     <col min="15" max="15" width="11.5703125" customWidth="1"/>
     <col min="16" max="16" width="10.7109375" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" customWidth="1"/>
     <col min="18" max="18" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4410,7 +5670,7 @@
         <v>14</v>
       </c>
       <c r="Q1" s="36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R1" s="36" t="s">
         <v>15</v>
@@ -4430,46 +5690,46 @@
         <v>31</v>
       </c>
       <c r="E2" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="H2" s="53" t="s">
-        <v>103</v>
-      </c>
       <c r="I2" s="48">
         <v>1</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K2" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L2" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M2" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="O2" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="P2" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="R2" s="27" t="s">
         <v>164</v>
-      </c>
-      <c r="Q2" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="R2" s="27" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -4489,43 +5749,43 @@
         <v>68</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I3" s="44">
         <v>2</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K3" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L3" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M3" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N3" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="O3" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="P3" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q3" s="32" t="s">
-        <v>164</v>
+        <v>159</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -4542,46 +5802,46 @@
         <v>33</v>
       </c>
       <c r="E4" s="62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I4" s="44">
         <v>1</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K4" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L4" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M4" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N4" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="O4" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="P4" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q4" s="32" t="s">
-        <v>164</v>
+        <v>170</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="R4" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -4598,46 +5858,46 @@
         <v>35</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I5" s="44">
         <v>2</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K5" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L5" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M5" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N5" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="O5" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="P5" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q5" s="32" t="s">
-        <v>164</v>
+        <v>159</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="R5" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -4654,46 +5914,46 @@
         <v>38</v>
       </c>
       <c r="E6" s="62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I6" s="44">
         <v>2</v>
       </c>
       <c r="J6" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K6" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L6" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M6" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N6" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="O6" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="P6" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q6" s="32" t="s">
-        <v>164</v>
+        <v>170</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="P6" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="R6" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -4710,46 +5970,46 @@
         <v>45</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I7" s="44">
         <v>1</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K7" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L7" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M7" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N7" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="O7" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="O7" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="P7" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q7" s="32" t="s">
-        <v>164</v>
+      <c r="P7" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="R7" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -4766,46 +6026,46 @@
         <v>47</v>
       </c>
       <c r="E8" s="62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I8" s="44">
         <v>2</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L8" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M8" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N8" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="O8" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="P8" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q8" s="32" t="s">
-        <v>164</v>
+        <v>159</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="R8" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -4822,46 +6082,46 @@
         <v>50</v>
       </c>
       <c r="E9" s="62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I9" s="44">
         <v>1</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K9" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L9" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M9" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N9" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="O9" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="O9" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="P9" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q9" s="32" t="s">
-        <v>164</v>
+      <c r="P9" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q9" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="R9" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -4878,46 +6138,46 @@
         <v>53</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I10" s="44">
         <v>2</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L10" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M10" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="O10" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="P10" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q10" s="32" t="s">
-        <v>164</v>
+        <v>177</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="R10" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -4937,43 +6197,43 @@
         <v>77</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I11" s="44">
         <v>1</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L11" s="32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M11" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N11" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="O11" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="O11" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="P11" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q11" s="32" t="s">
-        <v>164</v>
+      <c r="P11" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q11" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="R11" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -4990,46 +6250,46 @@
         <v>50</v>
       </c>
       <c r="E12" s="62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I12" s="42">
         <v>1</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K12" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L12" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M12" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N12" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="O12" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="O12" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="P12" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q12" s="32" t="s">
-        <v>164</v>
+      <c r="P12" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q12" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="R12" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -5046,71 +6306,71 @@
         <v>54</v>
       </c>
       <c r="E13" s="62" t="s">
-        <v>79</v>
+        <v>370</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I13" s="42">
         <v>1</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K13" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L13" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M13" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N13" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="O13" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="P13" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q13" s="32" t="s">
-        <v>164</v>
+        <v>170</v>
+      </c>
+      <c r="O13" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="P13" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q13" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="R13" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O13">
-      <formula1>"খুলনা,ময়মনসিংহ"</formula1>
+      <formula1>"খুলনা,যশোর ,ময়মনসিংহ"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P13">
-      <formula1>"দাকোপ,ময়মনসিংহ সদর"</formula1>
+      <formula1>"দাকোপ,মণিরামপুর,ময়মনসিংহ সদর"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q13">
-      <formula1>"দাকোপ,ভাবখালী"</formula1>
+      <formula1>"খুলনা সিটি কর্পোরেশন,মনিরামপুর পৌরসভা,ময়মনসিংহ পৌরসভা"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q2" activeCellId="2" sqref="O2 P2 Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5129,7 +6389,7 @@
     <col min="14" max="14" width="13" customWidth="1"/>
     <col min="15" max="15" width="11.5703125" customWidth="1"/>
     <col min="16" max="16" width="10.7109375" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" customWidth="1"/>
+    <col min="17" max="17" width="19.5703125" customWidth="1"/>
     <col min="18" max="18" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5183,7 +6443,7 @@
         <v>14</v>
       </c>
       <c r="Q1" s="36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R1" s="36" t="s">
         <v>15</v>
@@ -5203,46 +6463,46 @@
         <v>32</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I2" s="44">
         <v>1</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K2" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L2" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M2" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N2" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="O2" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="O2" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="P2" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q2" s="32" t="s">
-        <v>164</v>
+      <c r="P2" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="R2" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -5259,46 +6519,46 @@
         <v>36</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I3" s="44">
         <v>1</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K3" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L3" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="M3" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="M3" s="32" t="s">
-        <v>158</v>
-      </c>
       <c r="N3" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="O3" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="P3" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q3" s="32" t="s">
-        <v>164</v>
+        <v>170</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -5315,46 +6575,46 @@
         <v>33</v>
       </c>
       <c r="E4" s="62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I4" s="44">
         <v>1</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K4" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L4" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M4" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N4" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="O4" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="O4" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="P4" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q4" s="32" t="s">
-        <v>164</v>
+      <c r="P4" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="R4" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -5371,46 +6631,46 @@
         <v>38</v>
       </c>
       <c r="E5" s="62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I5" s="44">
         <v>2</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K5" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L5" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M5" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N5" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="O5" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="P5" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q5" s="32" t="s">
-        <v>164</v>
+        <v>170</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="R5" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -5427,46 +6687,46 @@
         <v>40</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I6" s="44">
         <v>1</v>
       </c>
       <c r="J6" s="31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K6" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L6" s="32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M6" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N6" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="O6" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="P6" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q6" s="32" t="s">
-        <v>164</v>
+        <v>159</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="P6" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="R6" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -5483,46 +6743,46 @@
         <v>41</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I7" s="44">
         <v>1</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K7" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L7" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M7" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N7" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="O7" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="P7" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q7" s="32" t="s">
-        <v>164</v>
+        <v>159</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="R7" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -5539,46 +6799,46 @@
         <v>43</v>
       </c>
       <c r="E8" s="62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I8" s="44">
         <v>1</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L8" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M8" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N8" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="O8" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="O8" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="P8" s="32" t="s">
+      <c r="P8" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="R8" s="27" t="s">
         <v>164</v>
-      </c>
-      <c r="Q8" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="R8" s="27" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -5595,46 +6855,46 @@
         <v>45</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I9" s="44">
         <v>1</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K9" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L9" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M9" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N9" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="O9" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="O9" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="P9" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q9" s="32" t="s">
-        <v>164</v>
+      <c r="P9" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q9" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="R9" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -5651,46 +6911,46 @@
         <v>47</v>
       </c>
       <c r="E10" s="62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I10" s="44">
         <v>2</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L10" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M10" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="O10" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="P10" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q10" s="32" t="s">
-        <v>164</v>
+        <v>159</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="R10" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -5707,46 +6967,46 @@
         <v>49</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I11" s="44">
         <v>1</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L11" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M11" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="O11" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="P11" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="O11" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q11" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="R11" s="27" t="s">
         <v>164</v>
-      </c>
-      <c r="Q11" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="R11" s="27" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -5763,46 +7023,46 @@
         <v>51</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I12" s="44">
         <v>1</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K12" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L12" s="32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M12" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N12" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="O12" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="O12" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="P12" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q12" s="32" t="s">
-        <v>164</v>
+      <c r="P12" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q12" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="R12" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -5819,46 +7079,46 @@
         <v>53</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I13" s="44">
         <v>2</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K13" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L13" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M13" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N13" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="O13" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="P13" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q13" s="32" t="s">
-        <v>164</v>
+        <v>177</v>
+      </c>
+      <c r="O13" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="P13" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q13" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="R13" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -5878,43 +7138,43 @@
         <v>78</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I14" s="44">
         <v>1</v>
       </c>
       <c r="J14" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K14" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L14" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N14" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="O14" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="P14" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="O14" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="P14" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q14" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="R14" s="27" t="s">
         <v>164</v>
-      </c>
-      <c r="Q14" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="R14" s="27" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -5931,46 +7191,46 @@
         <v>50</v>
       </c>
       <c r="E15" s="62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I15" s="42">
         <v>1</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K15" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L15" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M15" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N15" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="O15" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="O15" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="P15" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q15" s="32" t="s">
-        <v>164</v>
+      <c r="P15" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q15" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="R15" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -5987,46 +7247,46 @@
         <v>54</v>
       </c>
       <c r="E16" s="62" t="s">
-        <v>79</v>
+        <v>370</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I16" s="42">
         <v>1</v>
       </c>
       <c r="J16" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K16" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L16" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M16" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N16" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="O16" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="P16" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q16" s="32" t="s">
-        <v>164</v>
+        <v>170</v>
+      </c>
+      <c r="O16" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="P16" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q16" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="R16" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -6046,43 +7306,43 @@
         <v>73</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G17" s="37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I17" s="44">
         <v>1</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K17" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L17" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M17" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N17" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="O17" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="O17" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="P17" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q17" s="32" t="s">
-        <v>164</v>
+      <c r="P17" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q17" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="R17" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -6102,43 +7362,43 @@
         <v>71</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G18" s="37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I18" s="44">
         <v>1</v>
       </c>
       <c r="J18" s="31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K18" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L18" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M18" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N18" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="O18" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="O18" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="P18" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q18" s="32" t="s">
-        <v>164</v>
+      <c r="P18" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q18" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="R18" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -6158,43 +7418,43 @@
         <v>69</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G19" s="37" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H19" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I19" s="44">
         <v>2</v>
       </c>
       <c r="J19" s="31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K19" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L19" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M19" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N19" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="O19" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="P19" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q19" s="32" t="s">
-        <v>164</v>
+        <v>170</v>
+      </c>
+      <c r="O19" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="P19" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q19" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="R19" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -6214,43 +7474,43 @@
         <v>68</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I20" s="44">
         <v>2</v>
       </c>
       <c r="J20" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K20" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L20" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M20" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N20" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="O20" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="P20" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q20" s="32" t="s">
-        <v>164</v>
+        <v>159</v>
+      </c>
+      <c r="O20" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="P20" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q20" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="R20" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -6270,67 +7530,67 @@
         <v>67</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G21" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H21" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I21" s="44">
         <v>1</v>
       </c>
       <c r="J21" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K21" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L21" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="M21" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="M21" s="32" t="s">
-        <v>158</v>
-      </c>
       <c r="N21" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="O21" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="P21" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q21" s="32" t="s">
-        <v>164</v>
+        <v>171</v>
+      </c>
+      <c r="O21" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="P21" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q21" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="R21" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q21">
-      <formula1>"দাকোপ,ভাবখালী"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O21">
+      <formula1>"খুলনা,যশোর ,ময়মনসিংহ"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P21">
-      <formula1>"দাকোপ,ময়মনসিংহ সদর"</formula1>
+      <formula1>"দাকোপ,মণিরামপুর,ময়মনসিংহ সদর"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O21">
-      <formula1>"খুলনা,ময়মনসিংহ"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q21">
+      <formula1>"খুলনা সিটি কর্পোরেশন,মনিরামপুর পৌরসভা,ময়মনসিংহ পৌরসভা"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6341,71 +7601,148 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="54" t="s">
         <v>249</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="58" t="s">
-        <v>251</v>
-      </c>
-      <c r="B2" s="58">
-        <v>5012022</v>
+        <v>250</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="58" t="s">
-        <v>252</v>
-      </c>
-      <c r="B3" s="58">
-        <v>8022022</v>
+        <v>251</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="58" t="s">
-        <v>253</v>
-      </c>
-      <c r="B4" s="58">
-        <v>10032022</v>
+        <v>252</v>
+      </c>
+      <c r="B4" s="63" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="58" t="s">
-        <v>256</v>
-      </c>
-      <c r="B5" s="58">
-        <v>3042022</v>
+        <v>255</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="58" t="s">
-        <v>254</v>
-      </c>
-      <c r="B6" s="58">
-        <v>23052022</v>
+        <v>253</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="58" t="s">
-        <v>255</v>
-      </c>
-      <c r="B7" s="58">
-        <v>20062022</v>
+        <v>254</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="58" t="s">
+        <v>356</v>
+      </c>
+      <c r="B4" s="63" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="58" t="s">
+        <v>360</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="58" t="s">
+        <v>357</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="58" t="s">
+        <v>358</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>298</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6419,358 +7756,48 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>79</v>
+        <v>99</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="30.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" customWidth="1"/>
-    <col min="4" max="4" width="44.85546875" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" customWidth="1"/>
-    <col min="6" max="6" width="40.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>277</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>278</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>279</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>280</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="3" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="30" t="s">
-        <v>282</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>283</v>
-      </c>
-      <c r="C1" s="54" t="s">
-        <v>284</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>285</v>
-      </c>
-      <c r="E1" s="54" t="s">
-        <v>286</v>
-      </c>
-      <c r="F1" s="54" t="s">
-        <v>287</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>288</v>
-      </c>
-      <c r="H1" s="54" t="s">
-        <v>289</v>
-      </c>
-      <c r="I1" s="54" t="s">
-        <v>290</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="K1" s="54" t="s">
-        <v>292</v>
-      </c>
-      <c r="L1" s="54" t="s">
-        <v>293</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>294</v>
-      </c>
-      <c r="N1" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="O1" s="54" t="s">
-        <v>296</v>
-      </c>
-      <c r="P1" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q1" s="54" t="s">
-        <v>298</v>
-      </c>
-      <c r="R1" s="54" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>264</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>274</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="F2" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G2" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="H2" s="43" t="s">
-        <v>267</v>
-      </c>
-      <c r="I2" s="55" t="s">
-        <v>265</v>
-      </c>
-      <c r="J2" s="42" t="s">
-        <v>274</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="L2" s="54" t="s">
-        <v>265</v>
-      </c>
-      <c r="M2" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="N2" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="O2" s="54" t="s">
-        <v>269</v>
-      </c>
-      <c r="P2" s="42" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q2" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="R2" s="54" t="s">
-        <v>263</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" customWidth="1"/>
-    <col min="14" max="14" width="23.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="N1" s="36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="44">
-        <v>1</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" s="61" t="s">
-        <v>150</v>
-      </c>
-      <c r="H2" s="61" t="s">
-        <v>155</v>
-      </c>
-      <c r="I2" s="61" t="s">
-        <v>158</v>
-      </c>
-      <c r="J2" s="61" t="s">
-        <v>161</v>
-      </c>
-      <c r="K2" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="L2" s="61" t="s">
-        <v>164</v>
-      </c>
-      <c r="M2" s="61" t="s">
-        <v>164</v>
-      </c>
-      <c r="N2" s="60" t="s">
-        <v>167</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
-      <formula1>"দাকোপ,ভাবখালী"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2">
-      <formula1>"দাকোপ,ময়মনসিংহ সদর"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2">
-      <formula1>"খুলনা,ময়মনসিংহ"</formula1>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:F2">
+      <formula1>"মোস্তাফিজুর রহমান,নূরুজ্জামান সওদাগর,মুনমুন বসু,বদরুন্নেসা আহমেদ,আবুল খায়ের সিদ্দিকী,কাজী নাজমুল হক"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
